--- a/cs_car_pool/data/load.xlsx
+++ b/cs_car_pool/data/load.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicles" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work email</t>
   </si>
   <si>
     <t xml:space="preserve">department_id</t>
@@ -318,11 +321,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="#,##0"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -482,7 +486,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -494,7 +498,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,11 +506,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -551,16 +555,16 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="C2:C11 B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="24.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,21 +698,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="7" style="1" width="8.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1018" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="8" style="1" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,7 +723,7 @@
       <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -733,241 +738,284 @@
       <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="1" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B2," ",""))&amp;"@example.com"</f>
+        <v>arnoldwhite@example.com</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <f aca="false">Vehicles!B3</f>
         <v>DEF-321</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C3" s="1" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B3," ",""))&amp;"@example.com"</f>
+        <v>kathrynbrown@example.com</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="1" t="str">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="str">
         <f aca="false">Vehicles!B2</f>
         <v>ABC-123</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="H3" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B4," ",""))&amp;"@example.com"</f>
+        <v>johndeer@example.com</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="str">
         <f aca="false">Vehicles!B4</f>
         <v>TEN-037</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="H4" s="1" t="n">
         <v>37.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C5" s="1" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B5," ",""))&amp;"@example.com"</f>
+        <v>marywalker@example.com</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="1" t="str">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="str">
         <f aca="false">Vehicles!B4</f>
         <v>TEN-037</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="H5" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B6," ",""))&amp;"@example.com"</f>
+        <v>dennishearn@example.com</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="str">
         <f aca="false">Vehicles!B4</f>
         <v>TEN-037</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="H6" s="1" t="n">
         <v>32.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C7" s="1" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B7," ",""))&amp;"@example.com"</f>
+        <v>samfox@example.com</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="1" t="str">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <f aca="false">Vehicles!B3</f>
         <v>DEF-321</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="H7" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C8" s="1" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B8," ",""))&amp;"@example.com"</f>
+        <v>barryshepard@example.com</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="1" t="str">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <f aca="false">Vehicles!B4</f>
         <v>TEN-037</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="H8" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B9," ",""))&amp;"@example.com"</f>
+        <v>drewfinch@example.com</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <f aca="false">Vehicles!B4</f>
         <v>TEN-037</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="H9" s="1" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B10," ",""))&amp;"@example.com"</f>
+        <v>martinflemming@example.com</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="1" t="str">
+      <c r="G10" s="1" t="str">
         <f aca="false">Vehicles!B4</f>
         <v>TEN-037</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="H10" s="1" t="n">
         <v>22.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B11," ",""))&amp;"@example.com"</f>
+        <v>deborahprice@example.com</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="1" t="str">
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1" t="str">
         <f aca="false">Vehicles!B3</f>
         <v>DEF-321</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="H11" s="1" t="n">
         <v>25</v>
       </c>
     </row>
@@ -990,10 +1038,10 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="C2:C11 D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.13"/>
@@ -1004,16 +1052,16 @@
         <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,7 +1070,7 @@
         <v>Kathryn Brown</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="7" t="str">
         <f aca="false">LOWER(SUBSTITUTE(A2," ",""))</f>
@@ -1033,7 +1081,7 @@
         <v>Kathryn Brown</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1042,7 +1090,7 @@
         <v>John Deer</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="7" t="str">
         <f aca="false">LOWER(SUBSTITUTE(A3," ",""))</f>
@@ -1053,7 +1101,7 @@
         <v>John Deer</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1062,7 +1110,7 @@
         <v>Mary Walker</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="7" t="str">
         <f aca="false">LOWER(SUBSTITUTE(A4," ",""))</f>
@@ -1073,7 +1121,7 @@
         <v>Mary Walker</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,7 +1130,7 @@
         <v>Dennis Hearn</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="7" t="str">
         <f aca="false">LOWER(SUBSTITUTE(A5," ",""))</f>
@@ -1093,7 +1141,7 @@
         <v>Dennis Hearn</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1102,7 +1150,7 @@
         <v>Sam Fox</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="7" t="str">
         <f aca="false">LOWER(SUBSTITUTE(A6," ",""))</f>
@@ -1113,7 +1161,7 @@
         <v>Sam Fox</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1122,7 +1170,7 @@
         <v>Barry Shepard</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="7" t="str">
         <f aca="false">LOWER(SUBSTITUTE(A7," ",""))</f>
@@ -1133,7 +1181,7 @@
         <v>Barry Shepard</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,7 +1190,7 @@
         <v>Drew Finch</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="7" t="str">
         <f aca="false">LOWER(SUBSTITUTE(A8," ",""))</f>
@@ -1153,7 +1201,7 @@
         <v>Drew Finch</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,7 +1210,7 @@
         <v>Martin Flemming</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="7" t="str">
         <f aca="false">LOWER(SUBSTITUTE(A9," ",""))</f>
@@ -1173,7 +1221,7 @@
         <v>Martin Flemming</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,7 +1230,7 @@
         <v>Deborah Price</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="7" t="str">
         <f aca="false">LOWER(SUBSTITUTE(A10," ",""))</f>
@@ -1193,7 +1241,7 @@
         <v>Deborah Price</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1216,8 +1264,8 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="C2:C11 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1233,39 +1281,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="8" t="str">
         <f aca="false">Employees!B3</f>
         <v>Kathryn Brown</v>
       </c>
-      <c r="C2" s="10" t="b">
+      <c r="C2" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1277,7 +1325,7 @@
         <v>45108</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G2" s="12" t="n">
         <v>245621</v>
@@ -1292,26 +1340,26 @@
     </row>
     <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="8" t="str">
         <f aca="false">Employees!B4</f>
         <v>John Deer</v>
       </c>
-      <c r="C3" s="10" t="b">
+      <c r="C3" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D3" s="11" t="n">
         <f aca="true">TODAY()-10+RANDBETWEEN(0,2)</f>
-        <v>45320</v>
+        <v>45329</v>
       </c>
       <c r="E3" s="11" t="n">
         <f aca="false">D3</f>
-        <v>45320</v>
+        <v>45329</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" s="12" t="n">
         <f aca="false">H2</f>
@@ -1319,7 +1367,7 @@
       </c>
       <c r="H3" s="12" t="n">
         <f aca="false">G3+RANDBETWEEN(11,45)</f>
-        <v>245632</v>
+        <v>245643</v>
       </c>
       <c r="I3" s="13" t="str">
         <f aca="false">Vehicles!$B$5</f>
@@ -1328,34 +1376,34 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" s="8" t="str">
         <f aca="false">Employees!B5</f>
         <v>Mary Walker</v>
       </c>
-      <c r="C4" s="10" t="b">
+      <c r="C4" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D4" s="11" t="n">
         <f aca="false">D3+RANDBETWEEN(0,2)</f>
-        <v>45322</v>
+        <v>45330</v>
       </c>
       <c r="E4" s="11" t="n">
         <f aca="false">D4</f>
-        <v>45322</v>
+        <v>45330</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G4" s="12" t="n">
         <f aca="false">H3</f>
-        <v>245632</v>
+        <v>245643</v>
       </c>
       <c r="H4" s="12" t="n">
         <f aca="false">G4+RANDBETWEEN(11,45)</f>
-        <v>245648</v>
+        <v>245675</v>
       </c>
       <c r="I4" s="13" t="str">
         <f aca="false">Vehicles!$B$5</f>
@@ -1364,34 +1412,34 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" s="8" t="str">
         <f aca="false">Employees!B3</f>
         <v>Kathryn Brown</v>
       </c>
-      <c r="C5" s="10" t="b">
+      <c r="C5" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D5" s="11" t="n">
         <f aca="false">D4+RANDBETWEEN(0,2)</f>
-        <v>45324</v>
+        <v>45330</v>
       </c>
       <c r="E5" s="11" t="n">
         <f aca="false">D5</f>
-        <v>45324</v>
+        <v>45330</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G5" s="12" t="n">
         <f aca="false">H4</f>
-        <v>245648</v>
+        <v>245675</v>
       </c>
       <c r="H5" s="12" t="n">
         <f aca="false">G5+RANDBETWEEN(11,45)</f>
-        <v>245680</v>
+        <v>245707</v>
       </c>
       <c r="I5" s="13" t="str">
         <f aca="false">Vehicles!$B$5</f>
@@ -1400,34 +1448,34 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="8" t="str">
         <f aca="false">Employees!B7</f>
         <v>Sam Fox</v>
       </c>
-      <c r="C6" s="10" t="b">
+      <c r="C6" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D6" s="11" t="n">
         <f aca="false">D5+RANDBETWEEN(0,2)</f>
-        <v>45325</v>
+        <v>45330</v>
       </c>
       <c r="E6" s="11" t="n">
         <f aca="false">D6</f>
-        <v>45325</v>
+        <v>45330</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G6" s="12" t="n">
         <f aca="false">H5</f>
-        <v>245680</v>
+        <v>245707</v>
       </c>
       <c r="H6" s="12" t="n">
         <f aca="false">G6+RANDBETWEEN(11,45)</f>
-        <v>245721</v>
+        <v>245723</v>
       </c>
       <c r="I6" s="13" t="str">
         <f aca="false">Vehicles!$B$5</f>
@@ -1436,34 +1484,34 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="8" t="str">
         <f aca="false">Employees!B3</f>
         <v>Kathryn Brown</v>
       </c>
-      <c r="C7" s="10" t="b">
+      <c r="C7" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D7" s="11" t="n">
         <f aca="false">D6+RANDBETWEEN(0,2)</f>
-        <v>45327</v>
+        <v>45331</v>
       </c>
       <c r="E7" s="11" t="n">
         <f aca="false">D7</f>
-        <v>45327</v>
+        <v>45331</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G7" s="12" t="n">
         <f aca="false">H6</f>
-        <v>245721</v>
+        <v>245723</v>
       </c>
       <c r="H7" s="12" t="n">
         <f aca="false">G7+RANDBETWEEN(11,45)</f>
-        <v>245742</v>
+        <v>245744</v>
       </c>
       <c r="I7" s="13" t="str">
         <f aca="false">Vehicles!$B$5</f>
@@ -1472,34 +1520,34 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="8" t="str">
         <f aca="false">Employees!B3</f>
         <v>Kathryn Brown</v>
       </c>
-      <c r="C8" s="10" t="b">
+      <c r="C8" s="10" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D8" s="11" t="n">
         <f aca="false">D7+RANDBETWEEN(0,2)</f>
-        <v>45327</v>
+        <v>45331</v>
       </c>
       <c r="E8" s="11" t="n">
         <f aca="false">D8</f>
-        <v>45327</v>
+        <v>45331</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G8" s="12" t="n">
         <f aca="false">H7</f>
-        <v>245742</v>
+        <v>245744</v>
       </c>
       <c r="H8" s="12" t="n">
         <f aca="false">G8+RANDBETWEEN(11,45)</f>
-        <v>245763</v>
+        <v>245758</v>
       </c>
       <c r="I8" s="13" t="str">
         <f aca="false">Vehicles!$B$5</f>
@@ -1508,34 +1556,34 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="8" t="str">
         <f aca="false">Employees!B4</f>
         <v>John Deer</v>
       </c>
-      <c r="C9" s="10" t="b">
+      <c r="C9" s="10" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D9" s="11" t="n">
         <f aca="false">D8+RANDBETWEEN(0,2)</f>
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="E9" s="11" t="n">
         <f aca="false">D9</f>
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G9" s="12" t="n">
         <f aca="false">H8</f>
-        <v>245763</v>
+        <v>245758</v>
       </c>
       <c r="H9" s="12" t="n">
         <f aca="false">G9+RANDBETWEEN(11,45)</f>
-        <v>245795</v>
+        <v>245781</v>
       </c>
       <c r="I9" s="13" t="str">
         <f aca="false">Vehicles!$B$5</f>
